--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:51:23+00:00</t>
+    <t>2024-05-23T13:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:22:54+00:00</t>
+    <t>2024-05-28T14:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$80</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -36,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrOrganizationAgregateurSOS</t>
+    <t>FrOrganizationAgregateurCPTS</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:52+00:00</t>
+    <t>2024-06-03T14:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -506,7 +509,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-SIRET-invariant:Le numéro SIRET doit être préfixé par 3 suivi de 14 caractères numériques {value.matches('^3[0-9]{14}$')}</t>
+FINESS-invariant:Le numéro FINESS doit être préfixé par 1 suivi de 9 caractères numériques {value.matches('^3[0-9]{9}$')}</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -1446,6 +1449,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1774,7 +1792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>78</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>86</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>93</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>99</v>
       </c>
@@ -2280,7 +2298,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>108</v>
       </c>
@@ -2382,7 +2400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>115</v>
       </c>
@@ -2484,7 +2502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>122</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>141</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>145</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>150</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>157</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>162</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>165</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>174</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>185</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>193</v>
       </c>
@@ -3720,7 +3738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>199</v>
       </c>
@@ -3822,7 +3840,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>206</v>
       </c>
@@ -3924,7 +3942,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>213</v>
       </c>
@@ -4030,7 +4048,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>220</v>
       </c>
@@ -4132,7 +4150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>229</v>
       </c>
@@ -4238,7 +4256,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>232</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>234</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>236</v>
       </c>
@@ -4544,7 +4562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>244</v>
       </c>
@@ -4644,7 +4662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>246</v>
       </c>
@@ -4746,7 +4764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>248</v>
       </c>
@@ -4850,7 +4868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>256</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>262</v>
       </c>
@@ -5056,7 +5074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>269</v>
       </c>
@@ -5160,7 +5178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>275</v>
       </c>
@@ -5264,7 +5282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>282</v>
       </c>
@@ -5368,7 +5386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>289</v>
       </c>
@@ -5474,7 +5492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>293</v>
       </c>
@@ -5574,7 +5592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>294</v>
       </c>
@@ -5676,7 +5694,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>295</v>
       </c>
@@ -5780,7 +5798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>296</v>
       </c>
@@ -5880,7 +5898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>297</v>
       </c>
@@ -5982,7 +6000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>298</v>
       </c>
@@ -6086,7 +6104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>301</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>302</v>
       </c>
@@ -6292,7 +6310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>303</v>
       </c>
@@ -6396,7 +6414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>304</v>
       </c>
@@ -6500,7 +6518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>305</v>
       </c>
@@ -6604,7 +6622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>306</v>
       </c>
@@ -6710,7 +6728,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>310</v>
       </c>
@@ -6810,7 +6828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>311</v>
       </c>
@@ -6912,7 +6930,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>312</v>
       </c>
@@ -7016,7 +7034,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>313</v>
       </c>
@@ -7116,7 +7134,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>314</v>
       </c>
@@ -7218,7 +7236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>315</v>
       </c>
@@ -7322,7 +7340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>318</v>
       </c>
@@ -7424,7 +7442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>319</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>320</v>
       </c>
@@ -7632,7 +7650,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>321</v>
       </c>
@@ -7736,7 +7754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>322</v>
       </c>
@@ -7840,7 +7858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>323</v>
       </c>
@@ -7859,7 +7877,7 @@
         <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>71</v>
@@ -7944,7 +7962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>328</v>
       </c>
@@ -8048,7 +8066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>333</v>
       </c>
@@ -8067,7 +8085,7 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>71</v>
@@ -8152,7 +8170,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>341</v>
       </c>
@@ -8256,7 +8274,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>349</v>
       </c>
@@ -8360,7 +8378,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>355</v>
       </c>
@@ -8460,7 +8478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>356</v>
       </c>
@@ -8562,7 +8580,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>357</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>363</v>
       </c>
@@ -8766,7 +8784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>369</v>
       </c>
@@ -8868,7 +8886,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>374</v>
       </c>
@@ -8970,7 +8988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>379</v>
       </c>
@@ -9074,7 +9092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>385</v>
       </c>
@@ -9174,7 +9192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>386</v>
       </c>
@@ -9276,7 +9294,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>387</v>
       </c>
@@ -9380,7 +9398,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>392</v>
       </c>
@@ -9484,7 +9502,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>399</v>
       </c>
@@ -9588,7 +9606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>405</v>
       </c>
@@ -9690,7 +9708,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>408</v>
       </c>
@@ -9794,7 +9812,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>410</v>
       </c>
@@ -9899,6 +9917,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ80">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI79">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:45:40+00:00</t>
+    <t>2024-06-05T16:09:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T16:09:02+00:00</t>
+    <t>2024-06-06T08:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T08:13:16+00:00</t>
+    <t>2024-06-06T12:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T12:20:34+00:00</t>
+    <t>2024-06-06T13:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:15:28+00:00</t>
+    <t>2024-06-06T13:38:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:38:29+00:00</t>
+    <t>2024-06-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:50:16+00:00</t>
+    <t>2024-06-06T15:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T15:04:41+00:00</t>
+    <t>2024-06-10T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:12:05+00:00</t>
+    <t>2024-06-11T07:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T07:35:27+00:00</t>
+    <t>2024-06-12T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T14:11:34+00:00</t>
+    <t>2024-06-12T15:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T15:35:22+00:00</t>
+    <t>2024-06-13T07:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T07:18:59+00:00</t>
+    <t>2024-06-14T14:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -509,7 +509,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-FINESS-invariant:Le numéro FINESS doit être préfixé par 1 suivi de 9 caractères numériques {value.matches('^3[0-9]{9}$')}</t>
+FINESS-invariant:Le numéro FINESS doit être préfixé par 1 suivi de 9 caractères numériques {value.matches('^1[0-9]{9}$')}</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T14:49:07+00:00</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T15:03:51+00:00</t>
+    <t>2024-06-19T08:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:58:37+00:00</t>
+    <t>2024-06-19T13:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:37:34+00:00</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$80</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -39,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrOrganizationAgregateurCPTS</t>
+    <t>FrOrganizationAgregateurSOS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil dérivé de FrOrganization pour le cas d'usage agrégateur CPTS</t>
+    <t>Profil d'Organization, dérivé de FrOrganization, pour le service d’agrégation de créneaux de la plateforme SAS (Service d’accès aux soins), dans le cadre du cas d’usage SOS Médecins</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -512,7 +509,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-FINESS-invariant:Le numéro FINESS doit être préfixé par 1 suivi de 9 caractères numériques {value.matches('^1[0-9]{9}$')}</t>
+SIRET-invariant:Le numéro SIRET doit être préfixé par 3 suivi de 14 caractères numériques {value.matches('^3[0-9]{14}$')}</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -1452,21 +1449,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1797,7 +1779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1897,7 +1879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -1999,7 +1981,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -2099,7 +2081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -2201,7 +2183,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2303,7 +2285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2405,7 +2387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>116</v>
       </c>
@@ -2507,7 +2489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>123</v>
       </c>
@@ -2609,7 +2591,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2713,7 +2695,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>139</v>
       </c>
@@ -2817,7 +2799,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>142</v>
       </c>
@@ -2921,7 +2903,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>146</v>
       </c>
@@ -3025,7 +3007,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>151</v>
       </c>
@@ -3127,7 +3109,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>158</v>
       </c>
@@ -3227,7 +3209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>163</v>
       </c>
@@ -3329,7 +3311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>166</v>
       </c>
@@ -3433,7 +3415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>175</v>
       </c>
@@ -3537,7 +3519,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>186</v>
       </c>
@@ -3641,7 +3623,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>194</v>
       </c>
@@ -3743,7 +3725,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>200</v>
       </c>
@@ -3845,7 +3827,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>207</v>
       </c>
@@ -3947,7 +3929,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4053,7 +4035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>221</v>
       </c>
@@ -4155,7 +4137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>230</v>
       </c>
@@ -4261,7 +4243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>233</v>
       </c>
@@ -4361,7 +4343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>235</v>
       </c>
@@ -4463,7 +4445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>237</v>
       </c>
@@ -4567,7 +4549,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>245</v>
       </c>
@@ -4667,7 +4649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>247</v>
       </c>
@@ -4769,7 +4751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>249</v>
       </c>
@@ -4873,7 +4855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>257</v>
       </c>
@@ -4975,7 +4957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>263</v>
       </c>
@@ -5079,7 +5061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>270</v>
       </c>
@@ -5183,7 +5165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>276</v>
       </c>
@@ -5287,7 +5269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>283</v>
       </c>
@@ -5391,7 +5373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>290</v>
       </c>
@@ -5497,7 +5479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>294</v>
       </c>
@@ -5597,7 +5579,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>295</v>
       </c>
@@ -5699,7 +5681,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>296</v>
       </c>
@@ -5803,7 +5785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>297</v>
       </c>
@@ -5903,7 +5885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>298</v>
       </c>
@@ -6005,7 +5987,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>299</v>
       </c>
@@ -6109,7 +6091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>302</v>
       </c>
@@ -6211,7 +6193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>303</v>
       </c>
@@ -6315,7 +6297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>304</v>
       </c>
@@ -6419,7 +6401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>305</v>
       </c>
@@ -6523,7 +6505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>306</v>
       </c>
@@ -6627,7 +6609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>307</v>
       </c>
@@ -6733,7 +6715,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>311</v>
       </c>
@@ -6833,7 +6815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>312</v>
       </c>
@@ -6935,7 +6917,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>313</v>
       </c>
@@ -7039,7 +7021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>314</v>
       </c>
@@ -7139,7 +7121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>315</v>
       </c>
@@ -7241,7 +7223,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>316</v>
       </c>
@@ -7345,7 +7327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>319</v>
       </c>
@@ -7447,7 +7429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>320</v>
       </c>
@@ -7551,7 +7533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>321</v>
       </c>
@@ -7655,7 +7637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>322</v>
       </c>
@@ -7759,7 +7741,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>323</v>
       </c>
@@ -7863,7 +7845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>324</v>
       </c>
@@ -7882,7 +7864,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>72</v>
@@ -7967,7 +7949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>329</v>
       </c>
@@ -8071,7 +8053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>334</v>
       </c>
@@ -8090,7 +8072,7 @@
         <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>72</v>
@@ -8175,7 +8157,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>342</v>
       </c>
@@ -8279,7 +8261,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>350</v>
       </c>
@@ -8383,7 +8365,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>356</v>
       </c>
@@ -8483,7 +8465,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>357</v>
       </c>
@@ -8585,7 +8567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>358</v>
       </c>
@@ -8687,7 +8669,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>364</v>
       </c>
@@ -8789,7 +8771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>370</v>
       </c>
@@ -8891,7 +8873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>375</v>
       </c>
@@ -8993,7 +8975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>380</v>
       </c>
@@ -9097,7 +9079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>386</v>
       </c>
@@ -9197,7 +9179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>387</v>
       </c>
@@ -9299,7 +9281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>388</v>
       </c>
@@ -9403,7 +9385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>393</v>
       </c>
@@ -9507,7 +9489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>400</v>
       </c>
@@ -9611,7 +9593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>406</v>
       </c>
@@ -9713,7 +9695,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>409</v>
       </c>
@@ -9817,7 +9799,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>411</v>
       </c>
@@ -9922,24 +9904,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ80">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
